--- a/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Erbb2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H2">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N2">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q2">
-        <v>26.0650160690817</v>
+        <v>27.19726550383222</v>
       </c>
       <c r="R2">
-        <v>26.0650160690817</v>
+        <v>244.77538953449</v>
       </c>
       <c r="S2">
-        <v>0.1406053135504699</v>
+        <v>0.1371643962199309</v>
       </c>
       <c r="T2">
-        <v>0.1406053135504699</v>
+        <v>0.1371643962199309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H3">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q3">
-        <v>24.79823649193716</v>
+        <v>26.38504056328222</v>
       </c>
       <c r="R3">
-        <v>24.79823649193716</v>
+        <v>237.46536506954</v>
       </c>
       <c r="S3">
-        <v>0.13377178852322</v>
+        <v>0.1330680894221165</v>
       </c>
       <c r="T3">
-        <v>0.13377178852322</v>
+        <v>0.1330680894221166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H4">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I4">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J4">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N4">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q4">
-        <v>9.245692842250074</v>
+        <v>9.913980430672776</v>
       </c>
       <c r="R4">
-        <v>9.245692842250074</v>
+        <v>89.22582387605499</v>
       </c>
       <c r="S4">
-        <v>0.0498750331720669</v>
+        <v>0.04999933319464904</v>
       </c>
       <c r="T4">
-        <v>0.0498750331720669</v>
+        <v>0.04999933319464905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H5">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I5">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J5">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N5">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q5">
-        <v>26.85551321365898</v>
+        <v>0.6040084393395556</v>
       </c>
       <c r="R5">
-        <v>26.85551321365898</v>
+        <v>5.436075954056</v>
       </c>
       <c r="S5">
-        <v>0.144869577135785</v>
+        <v>0.003046205247438539</v>
       </c>
       <c r="T5">
-        <v>0.144869577135785</v>
+        <v>0.00304620524743854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H6">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I6">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J6">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N6">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q6">
-        <v>25.55031487491124</v>
+        <v>0.5859702024195556</v>
       </c>
       <c r="R6">
-        <v>25.55031487491124</v>
+        <v>5.273731821776001</v>
       </c>
       <c r="S6">
-        <v>0.1378288056596121</v>
+        <v>0.002955232723908362</v>
       </c>
       <c r="T6">
-        <v>0.1378288056596121</v>
+        <v>0.002955232723908362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H7">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J7">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N7">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q7">
-        <v>9.526095270242697</v>
+        <v>0.2201738938324444</v>
       </c>
       <c r="R7">
-        <v>9.526095270242697</v>
+        <v>1.981565044492</v>
       </c>
       <c r="S7">
-        <v>0.05138763808294525</v>
+        <v>0.001110406456364633</v>
       </c>
       <c r="T7">
-        <v>0.05138763808294525</v>
+        <v>0.001110406456364633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H8">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I8">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J8">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N8">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q8">
-        <v>22.50363184577592</v>
+        <v>27.461986320602</v>
       </c>
       <c r="R8">
-        <v>22.50363184577592</v>
+        <v>247.157876885418</v>
       </c>
       <c r="S8">
-        <v>0.1213937564171676</v>
+        <v>0.138499466872308</v>
       </c>
       <c r="T8">
-        <v>0.1213937564171676</v>
+        <v>0.138499466872308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H9">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I9">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J9">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N9">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q9">
-        <v>21.40993824672905</v>
+        <v>26.641855701092</v>
       </c>
       <c r="R9">
-        <v>21.40993824672905</v>
+        <v>239.776701309828</v>
       </c>
       <c r="S9">
-        <v>0.1154939276576319</v>
+        <v>0.1343632892396442</v>
       </c>
       <c r="T9">
-        <v>0.1154939276576319</v>
+        <v>0.1343632892396443</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H10">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I10">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J10">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N10">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q10">
-        <v>7.98241088091727</v>
+        <v>10.010476786039</v>
       </c>
       <c r="R10">
-        <v>7.98241088091727</v>
+        <v>90.09429107435099</v>
       </c>
       <c r="S10">
-        <v>0.04306037570916401</v>
+        <v>0.0504859947790413</v>
       </c>
       <c r="T10">
-        <v>0.04306037570916401</v>
+        <v>0.0504859947790413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H11">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I11">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J11">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N11">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q11">
-        <v>4.960864090597315</v>
+        <v>23.67538252111489</v>
       </c>
       <c r="R11">
-        <v>4.960864090597315</v>
+        <v>213.078442690034</v>
       </c>
       <c r="S11">
-        <v>0.02676092157745125</v>
+        <v>0.119402428465724</v>
       </c>
       <c r="T11">
-        <v>0.02676092157745125</v>
+        <v>0.119402428465724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H12">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I12">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J12">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N12">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q12">
-        <v>4.719762328054654</v>
+        <v>22.96833584548489</v>
       </c>
       <c r="R12">
-        <v>4.719762328054654</v>
+        <v>206.715022609364</v>
       </c>
       <c r="S12">
-        <v>0.02546032046406486</v>
+        <v>0.1158365688630947</v>
       </c>
       <c r="T12">
-        <v>0.02546032046406486</v>
+        <v>0.1158365688630947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H13">
+        <v>19.145591</v>
+      </c>
+      <c r="I13">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J13">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.352297666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.056893</v>
+      </c>
+      <c r="O13">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="P13">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="Q13">
+        <v>8.63017934541811</v>
+      </c>
+      <c r="R13">
+        <v>77.67161410876299</v>
+      </c>
+      <c r="S13">
+        <v>0.04352471902063821</v>
+      </c>
+      <c r="T13">
+        <v>0.0435247190206382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="H13">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="I13">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="J13">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.31474249576101</v>
-      </c>
-      <c r="N13">
-        <v>1.31474249576101</v>
-      </c>
-      <c r="O13">
-        <v>0.1538155890145972</v>
-      </c>
-      <c r="P13">
-        <v>0.1538155890145972</v>
-      </c>
-      <c r="Q13">
-        <v>1.75970064596346</v>
-      </c>
-      <c r="R13">
-        <v>1.75970064596346</v>
-      </c>
-      <c r="S13">
-        <v>0.009492542050420981</v>
-      </c>
-      <c r="T13">
-        <v>0.009492542050420981</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J14">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.709791333333333</v>
+      </c>
+      <c r="N14">
+        <v>11.129374</v>
+      </c>
+      <c r="O14">
+        <v>0.4283284425582907</v>
+      </c>
+      <c r="P14">
+        <v>0.4283284425582907</v>
+      </c>
+      <c r="Q14">
+        <v>5.991285798196889</v>
+      </c>
+      <c r="R14">
+        <v>53.92157218377199</v>
+      </c>
+      <c r="S14">
+        <v>0.03021594575288934</v>
+      </c>
+      <c r="T14">
+        <v>0.03021594575288934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J15">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N15">
+        <v>10.797004</v>
+      </c>
+      <c r="O15">
+        <v>0.4155367505499981</v>
+      </c>
+      <c r="P15">
+        <v>0.4155367505499982</v>
+      </c>
+      <c r="Q15">
+        <v>5.812360760656889</v>
+      </c>
+      <c r="R15">
+        <v>52.311246845912</v>
+      </c>
+      <c r="S15">
+        <v>0.0293135703012343</v>
+      </c>
+      <c r="T15">
+        <v>0.02931357030123431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J16">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.352297666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.056893</v>
+      </c>
+      <c r="O16">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="P16">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="Q16">
+        <v>2.183950814817111</v>
+      </c>
+      <c r="R16">
+        <v>19.655557333354</v>
+      </c>
+      <c r="S16">
+        <v>0.01101435344101802</v>
+      </c>
+      <c r="T16">
+        <v>0.01101435344101802</v>
       </c>
     </row>
   </sheetData>
